--- a/data/trans_orig/P05A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>435245</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>419483</v>
+        <v>421622</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>447466</v>
+        <v>447684</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8889257056665858</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8567350517851486</v>
+        <v>0.8611032614497811</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9138866053778526</v>
+        <v>0.9143321832821345</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>433</v>
@@ -765,19 +765,19 @@
         <v>413196</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>398316</v>
+        <v>398577</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>424330</v>
+        <v>424139</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8935578194142508</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8613781242548594</v>
+        <v>0.8619424608002344</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9176351060316167</v>
+        <v>0.9172210709556429</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>874</v>
@@ -786,19 +786,19 @@
         <v>848441</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>826477</v>
+        <v>825892</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>865617</v>
+        <v>865706</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8911755622298811</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8681057342768118</v>
+        <v>0.867490868689309</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9092168997893167</v>
+        <v>0.9093104008928772</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>44845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33621</v>
+        <v>32924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60994</v>
+        <v>58661</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09158941757271487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06866526520556206</v>
+        <v>0.06724334899084256</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1245712827661764</v>
+        <v>0.1198057802751467</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -836,19 +836,19 @@
         <v>36810</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27404</v>
+        <v>26909</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49199</v>
+        <v>50020</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07960297117723475</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05926227968351699</v>
+        <v>0.05819253867324262</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1063950336729531</v>
+        <v>0.1081710212251785</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>81</v>
@@ -857,19 +857,19 @@
         <v>81655</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>66668</v>
+        <v>65143</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>102089</v>
+        <v>100690</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08576749985598074</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07002576298567241</v>
+        <v>0.06842387653625645</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1072314558141968</v>
+        <v>0.105761101720274</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>9540</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4655</v>
+        <v>4956</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16697</v>
+        <v>16331</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01948487676069938</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009506211131756204</v>
+        <v>0.01012254107709367</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03410067708452202</v>
+        <v>0.03335305629664768</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -907,19 +907,19 @@
         <v>12411</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6757</v>
+        <v>6662</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20862</v>
+        <v>20529</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02683920940851439</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01461332828605328</v>
+        <v>0.01440761415480689</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04511492544899413</v>
+        <v>0.0443946538949429</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -928,19 +928,19 @@
         <v>21951</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14278</v>
+        <v>13666</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32628</v>
+        <v>32494</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02305693791413813</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0149976205179215</v>
+        <v>0.01435386021172117</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03427164595961998</v>
+        <v>0.03413057767553406</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>663364</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>645453</v>
+        <v>646562</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>677070</v>
+        <v>677100</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9158493417452307</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8911200737581689</v>
+        <v>0.8926512408775</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9347718216251083</v>
+        <v>0.934812579487551</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>520</v>
@@ -1053,19 +1053,19 @@
         <v>543991</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>525391</v>
+        <v>526326</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>558761</v>
+        <v>560432</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8833924089194277</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8531869081527539</v>
+        <v>0.8547056324355744</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9073768965561881</v>
+        <v>0.910090123800377</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1153</v>
@@ -1074,19 +1074,19 @@
         <v>1207357</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1184365</v>
+        <v>1186061</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1227523</v>
+        <v>1227647</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9009350004911694</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8837784449313503</v>
+        <v>0.8850439363683681</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9159831690661717</v>
+        <v>0.9160760185923023</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>50085</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37566</v>
+        <v>37810</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>65727</v>
+        <v>65490</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06914798338713517</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05186368151170702</v>
+        <v>0.05220075933986037</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09074392451367927</v>
+        <v>0.09041572391677669</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>48</v>
@@ -1124,19 +1124,19 @@
         <v>54457</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>41140</v>
+        <v>41886</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>70925</v>
+        <v>72856</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08843337114654101</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06680681771772043</v>
+        <v>0.06801980843644322</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1151751207892541</v>
+        <v>0.1183122719388806</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>98</v>
@@ -1145,19 +1145,19 @@
         <v>104542</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>85904</v>
+        <v>87139</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>124710</v>
+        <v>126278</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07800984522122732</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06410223456181353</v>
+        <v>0.06502382875362898</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09305954595868236</v>
+        <v>0.09422931112330372</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>10867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5230</v>
+        <v>5558</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19927</v>
+        <v>20911</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01500267486763418</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007220355894431641</v>
+        <v>0.007673408031826737</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02751164147379614</v>
+        <v>0.02887061476935877</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1195,19 +1195,19 @@
         <v>17350</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10330</v>
+        <v>9958</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28741</v>
+        <v>28634</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02817421993403128</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01677493903501991</v>
+        <v>0.01617127475884483</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04667339155881997</v>
+        <v>0.04649973334576465</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1216,19 +1216,19 @@
         <v>28216</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18210</v>
+        <v>18614</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40543</v>
+        <v>40911</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02105515428760335</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.013588579516417</v>
+        <v>0.0138897742238214</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03025359374214412</v>
+        <v>0.03052783888645139</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>547182</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>527528</v>
+        <v>528107</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>563875</v>
+        <v>563628</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8626969772872763</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8317098892720853</v>
+        <v>0.8326225974044364</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.889014925869569</v>
+        <v>0.8886263232299043</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>590</v>
@@ -1341,19 +1341,19 @@
         <v>617833</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>600318</v>
+        <v>600750</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>631952</v>
+        <v>632525</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8997252338845262</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8742187016440263</v>
+        <v>0.8748482838692487</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.920285221564575</v>
+        <v>0.9211207918311665</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1116</v>
@@ -1362,19 +1362,19 @@
         <v>1165015</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1137628</v>
+        <v>1140209</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1187487</v>
+        <v>1186487</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8819458419570444</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8612130759804699</v>
+        <v>0.8631672763083912</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8989574941766334</v>
+        <v>0.8982003439704351</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>75927</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59933</v>
+        <v>60604</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93760</v>
+        <v>94688</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1197086191948617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09449217016622752</v>
+        <v>0.09554924661591822</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1478231669806391</v>
+        <v>0.1492873202649138</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -1412,19 +1412,19 @@
         <v>56038</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43425</v>
+        <v>42536</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72554</v>
+        <v>72456</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08160530038254153</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06323781880226466</v>
+        <v>0.06194345484022384</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1056572756106671</v>
+        <v>0.10551401499751</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -1433,19 +1433,19 @@
         <v>131965</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110788</v>
+        <v>111600</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>157446</v>
+        <v>156705</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09990089140295019</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08386900407781644</v>
+        <v>0.08448378263712703</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.119190330767959</v>
+        <v>0.118629584418335</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>11160</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5558</v>
+        <v>5492</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20049</v>
+        <v>20068</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0175944035178619</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008762919365733108</v>
+        <v>0.008659111292256211</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03160994607407917</v>
+        <v>0.03164006840739204</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -1483,19 +1483,19 @@
         <v>12820</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6918</v>
+        <v>6946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21912</v>
+        <v>22397</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01866946573293228</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01007490054578358</v>
+        <v>0.01011584835304816</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03191013333704876</v>
+        <v>0.03261621685376293</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -1504,19 +1504,19 @@
         <v>23980</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15354</v>
+        <v>15603</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36252</v>
+        <v>35789</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01815326664000543</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01162369295027646</v>
+        <v>0.01181182470275814</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02744400275972449</v>
+        <v>0.02709341261736466</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>466990</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>451874</v>
+        <v>453214</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>478839</v>
+        <v>479417</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9060088530144983</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8766827664760672</v>
+        <v>0.879283746967257</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9289979915549104</v>
+        <v>0.9301193685976058</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>441</v>
@@ -1629,19 +1629,19 @@
         <v>451837</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>434562</v>
+        <v>436887</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>465554</v>
+        <v>465015</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8849039641783205</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8510719380236771</v>
+        <v>0.855625091165614</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9117677564795343</v>
+        <v>0.9107127085239687</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>874</v>
@@ -1650,19 +1650,19 @@
         <v>918828</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>897971</v>
+        <v>896852</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>935100</v>
+        <v>937508</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8955060835451927</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8751784389930051</v>
+        <v>0.8740882952547181</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9113655651305488</v>
+        <v>0.9137117894708743</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>37557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27393</v>
+        <v>26947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50730</v>
+        <v>50399</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07286412135617557</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05314489347105099</v>
+        <v>0.05228093668558806</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09842243377359983</v>
+        <v>0.09777903773433257</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -1700,19 +1700,19 @@
         <v>50564</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37561</v>
+        <v>37714</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65421</v>
+        <v>65386</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09902711479616129</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07356232710284619</v>
+        <v>0.07386199538978515</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1281245422066907</v>
+        <v>0.1280559977854864</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>83</v>
@@ -1721,19 +1721,19 @@
         <v>88121</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>72993</v>
+        <v>71256</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>106940</v>
+        <v>106857</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08588403777744068</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07114067133689887</v>
+        <v>0.06944759307522544</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1042252014142496</v>
+        <v>0.1041449884018825</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>10890</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5696</v>
+        <v>5958</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18708</v>
+        <v>20170</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02112702562932616</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01105165467964127</v>
+        <v>0.01155824604546784</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03629488039820746</v>
+        <v>0.03913156275164021</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -1771,19 +1771,19 @@
         <v>8205</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4017</v>
+        <v>3903</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15504</v>
+        <v>14875</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01606892102551815</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007866346944862488</v>
+        <v>0.007644652255265838</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03036379457939788</v>
+        <v>0.02913160895621554</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -1792,19 +1792,19 @@
         <v>19095</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10969</v>
+        <v>11465</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>28706</v>
+        <v>28915</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01860987867736666</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01069104156776343</v>
+        <v>0.01117397932475892</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02797732752725936</v>
+        <v>0.0281813301901477</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>328832</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>314034</v>
+        <v>315568</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>340469</v>
+        <v>341091</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8621379994833778</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.823340435825799</v>
+        <v>0.8273599950459435</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8926460641635887</v>
+        <v>0.8942782935680096</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>351</v>
@@ -1917,19 +1917,19 @@
         <v>356922</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>344902</v>
+        <v>343222</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>368163</v>
+        <v>368248</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8917145326705385</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8616838547110983</v>
+        <v>0.8574862377004895</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9197984924708172</v>
+        <v>0.9200111019098353</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>686</v>
@@ -1938,19 +1938,19 @@
         <v>685754</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>665397</v>
+        <v>666662</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>702921</v>
+        <v>703470</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8772828876198931</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.851239238434446</v>
+        <v>0.8528582414592487</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8992433131017245</v>
+        <v>0.8999463563315157</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>44615</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>33920</v>
+        <v>33246</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>59124</v>
+        <v>57647</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1169719523000146</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08893275979720722</v>
+        <v>0.08716590944009962</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.155011505470492</v>
+        <v>0.151139033032631</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -1988,19 +1988,19 @@
         <v>29540</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19711</v>
+        <v>19982</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>40573</v>
+        <v>40773</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07379998262238448</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04924570208531519</v>
+        <v>0.04992084031041343</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1013641901876451</v>
+        <v>0.1018646183857058</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>72</v>
@@ -2009,19 +2009,19 @@
         <v>74154</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>59024</v>
+        <v>59098</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>89866</v>
+        <v>91214</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09486541779635035</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07550930782524104</v>
+        <v>0.07560338393626859</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1149650360639395</v>
+        <v>0.1166897052375399</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>7968</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3556</v>
+        <v>3330</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14963</v>
+        <v>15512</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02089004821660755</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009323641211083545</v>
+        <v>0.008731822266400078</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03922938686024629</v>
+        <v>0.04067040566887429</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2059,19 +2059,19 @@
         <v>13803</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7519</v>
+        <v>7476</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22052</v>
+        <v>23424</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03448548470707703</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01878523921982538</v>
+        <v>0.01867652215209059</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05509353250867431</v>
+        <v>0.05852021056564849</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2080,19 +2080,19 @@
         <v>21771</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13997</v>
+        <v>13920</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32560</v>
+        <v>32440</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02785169458375653</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01790656406436309</v>
+        <v>0.01780841801627382</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04165413663667547</v>
+        <v>0.04149999520420664</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>264800</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>253348</v>
+        <v>254204</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>272804</v>
+        <v>274059</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9050429487808771</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8659003068349835</v>
+        <v>0.8688286481032674</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9324001338629408</v>
+        <v>0.9366864910149194</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>333</v>
@@ -2205,19 +2205,19 @@
         <v>307392</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>295439</v>
+        <v>297214</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>317057</v>
+        <v>317556</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9037135557503827</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8685722050914736</v>
+        <v>0.8737899994540134</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9321277886106429</v>
+        <v>0.933594982329227</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>607</v>
@@ -2226,19 +2226,19 @@
         <v>572192</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>557069</v>
+        <v>558153</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>586377</v>
+        <v>585922</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9043282891615015</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8804269816156618</v>
+        <v>0.8821397966650045</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9267467010244393</v>
+        <v>0.9260279792114988</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>20807</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13547</v>
+        <v>13479</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31199</v>
+        <v>30175</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07111549215834062</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04630202817168798</v>
+        <v>0.04606877379458629</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1066330624377185</v>
+        <v>0.1031346131972917</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -2276,19 +2276,19 @@
         <v>28271</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19253</v>
+        <v>18570</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39912</v>
+        <v>37756</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08311396204214354</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05660193876876481</v>
+        <v>0.05459547166653897</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1173389687695753</v>
+        <v>0.1109997733980312</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>52</v>
@@ -2297,19 +2297,19 @@
         <v>49078</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36693</v>
+        <v>37437</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>62871</v>
+        <v>63083</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07756567034007719</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05799192260137505</v>
+        <v>0.05916796833600067</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0993655051086406</v>
+        <v>0.09970085095632708</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>6976</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2688</v>
+        <v>2769</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13624</v>
+        <v>14090</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02384155906078232</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00918554840943072</v>
+        <v>0.00946242344473896</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04656502503654667</v>
+        <v>0.04815874445884517</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2347,19 +2347,19 @@
         <v>4481</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1671</v>
+        <v>1764</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10564</v>
+        <v>10260</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01317248220747381</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004911238803309297</v>
+        <v>0.005184834709575435</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03105793566607217</v>
+        <v>0.03016262201904353</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -2368,19 +2368,19 @@
         <v>11456</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6169</v>
+        <v>6281</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19251</v>
+        <v>20097</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0181060404984213</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009749356831400279</v>
+        <v>0.009926136275513952</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03042515256860655</v>
+        <v>0.03176319984162239</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>189616</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>179808</v>
+        <v>180608</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>195783</v>
+        <v>195967</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9186822668779592</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8711629414493364</v>
+        <v>0.8750374068736119</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9485609282173283</v>
+        <v>0.9494523443516146</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>258</v>
@@ -2493,19 +2493,19 @@
         <v>295457</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>281441</v>
+        <v>282314</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>306445</v>
+        <v>306021</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8943879551805674</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8519595335181445</v>
+        <v>0.8545996293342469</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9276476910773425</v>
+        <v>0.9263638761445298</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>456</v>
@@ -2514,19 +2514,19 @@
         <v>485074</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>470243</v>
+        <v>470513</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>498577</v>
+        <v>496984</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9037300884213993</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8761001489176905</v>
+        <v>0.876601885811513</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9288872289488507</v>
+        <v>0.9259201999810721</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>15916</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10066</v>
+        <v>9922</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24961</v>
+        <v>24322</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07711297361211594</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04876949521763434</v>
+        <v>0.04807167684344005</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1209361675854153</v>
+        <v>0.1178379522346548</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -2564,19 +2564,19 @@
         <v>31316</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>21279</v>
+        <v>21325</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>45424</v>
+        <v>44413</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09479762906105867</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06441403373331504</v>
+        <v>0.06455292175886156</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1375038458057803</v>
+        <v>0.1344436338466016</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>43</v>
@@ -2585,19 +2585,19 @@
         <v>47232</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>34617</v>
+        <v>35966</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>61793</v>
+        <v>61503</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0879971726587493</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06449443785911767</v>
+        <v>0.06700787752804836</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1151253432502701</v>
+        <v>0.1145845958120027</v>
       </c>
     </row>
     <row r="30">
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4455</v>
+        <v>4406</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.004204759509924823</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.021583609487419</v>
+        <v>0.02134526320941852</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -2635,19 +2635,19 @@
         <v>3572</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9819</v>
+        <v>9441</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01081441575837402</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00341286314192476</v>
+        <v>0.00337719853483348</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02972350562121139</v>
+        <v>0.02857862286249391</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -2656,19 +2656,19 @@
         <v>4440</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10104</v>
+        <v>10685</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.008272738919851402</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002251053706086613</v>
+        <v>0.002258906428068113</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01882526962257967</v>
+        <v>0.01990633699274418</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>2896029</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2860923</v>
+        <v>2861688</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2933412</v>
+        <v>2931492</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8927205353075325</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8818988972245514</v>
+        <v>0.882134563990203</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9042439148875759</v>
+        <v>0.9036520573782991</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2926</v>
@@ -2781,19 +2781,19 @@
         <v>2986630</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2947626</v>
+        <v>2952177</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3023100</v>
+        <v>3022479</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8925260382570467</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8808699864089238</v>
+        <v>0.882229925943687</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9034247511243366</v>
+        <v>0.9032390170037156</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5766</v>
@@ -2802,19 +2802,19 @@
         <v>5882660</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5828389</v>
+        <v>5827803</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5928242</v>
+        <v>5931475</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8926217784256887</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8843868527418339</v>
+        <v>0.8842979786991886</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8995383769771796</v>
+        <v>0.9000289439233781</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>289752</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>255950</v>
+        <v>257621</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>323992</v>
+        <v>324452</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08931810231787411</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07889837927835724</v>
+        <v>0.07941335722941301</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09987268086662542</v>
+        <v>0.1000145516864994</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>269</v>
@@ -2852,19 +2852,19 @@
         <v>286995</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>252965</v>
+        <v>256129</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>321798</v>
+        <v>320493</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.08576560456119783</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07559603760206487</v>
+        <v>0.07654175889514513</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09616618843605959</v>
+        <v>0.09577635561876474</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>553</v>
@@ -2873,19 +2873,19 @@
         <v>576747</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>532179</v>
+        <v>533167</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>627793</v>
+        <v>627043</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.08751430323541999</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.08075168667542638</v>
+        <v>0.0809015457815819</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09525989618372552</v>
+        <v>0.09514608373636463</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>58268</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>44372</v>
+        <v>45139</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>73235</v>
+        <v>76053</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01796136237459342</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01367799675572511</v>
+        <v>0.01391454232605249</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02257517186340422</v>
+        <v>0.02344400323818696</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>71</v>
@@ -2923,19 +2923,19 @@
         <v>72642</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>56724</v>
+        <v>56290</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>91412</v>
+        <v>91139</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02170835718175549</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0169515561622651</v>
+        <v>0.01682163841635102</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02731762226042642</v>
+        <v>0.02723597245219675</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>128</v>
@@ -2944,19 +2944,19 @@
         <v>130909</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>110182</v>
+        <v>108762</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>153615</v>
+        <v>156664</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01986391833889131</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01671876500307976</v>
+        <v>0.01650327803805001</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02330924281434639</v>
+        <v>0.02377181512727963</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>406703</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>392658</v>
+        <v>395158</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>416398</v>
+        <v>417550</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9127652563982619</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8812436929440625</v>
+        <v>0.8868551443403173</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.934525020165587</v>
+        <v>0.9371091755900324</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>392</v>
@@ -3312,19 +3312,19 @@
         <v>400742</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>389846</v>
+        <v>390592</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>409567</v>
+        <v>410152</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9400404838645163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9144805064425716</v>
+        <v>0.9162302703299745</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9607421404000769</v>
+        <v>0.9621146284700319</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>791</v>
@@ -3333,19 +3333,19 @@
         <v>807445</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>790769</v>
+        <v>792091</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>820998</v>
+        <v>821603</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9261014627068593</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9069754479276825</v>
+        <v>0.908491113485595</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.941646104920612</v>
+        <v>0.9423409294405741</v>
       </c>
     </row>
     <row r="5">
@@ -3362,19 +3362,19 @@
         <v>34007</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24937</v>
+        <v>23869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46581</v>
+        <v>45642</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07632271339032685</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05596593493030093</v>
+        <v>0.05357002371521433</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1045423135544145</v>
+        <v>0.1024338112299116</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -3383,19 +3383,19 @@
         <v>18535</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11048</v>
+        <v>10502</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28605</v>
+        <v>27247</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0434777571240516</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02591466978749511</v>
+        <v>0.0246345904181503</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.067100473831152</v>
+        <v>0.06391425878762705</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>53</v>
@@ -3404,19 +3404,19 @@
         <v>52542</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40477</v>
+        <v>40605</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68456</v>
+        <v>69120</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06026319148511654</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04642498570701483</v>
+        <v>0.04657217140795428</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07851558257085685</v>
+        <v>0.07927729909965281</v>
       </c>
     </row>
     <row r="6">
@@ -3433,19 +3433,19 @@
         <v>4862</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1947</v>
+        <v>1905</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10860</v>
+        <v>10782</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01091203021141127</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004370594650557459</v>
+        <v>0.00427446693540444</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02437307440200024</v>
+        <v>0.0241979221990325</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -3454,19 +3454,19 @@
         <v>7026</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3055</v>
+        <v>3296</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14578</v>
+        <v>14564</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01648175901143211</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007165785446144028</v>
+        <v>0.00773096686867993</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03419664251170293</v>
+        <v>0.03416332813512366</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -3475,19 +3475,19 @@
         <v>11888</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6762</v>
+        <v>6369</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19909</v>
+        <v>19594</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01363534580802415</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007755860784416641</v>
+        <v>0.007304953805272517</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02283414402896303</v>
+        <v>0.02247343209403929</v>
       </c>
     </row>
     <row r="7">
@@ -3579,19 +3579,19 @@
         <v>626505</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>608354</v>
+        <v>610788</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>641219</v>
+        <v>640166</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9168715109983668</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8903081136535479</v>
+        <v>0.893870272281456</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9384048203358958</v>
+        <v>0.9368641175381908</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>513</v>
@@ -3600,19 +3600,19 @@
         <v>550097</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>534510</v>
+        <v>536341</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>563347</v>
+        <v>564247</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9071469553822813</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8814429872211865</v>
+        <v>0.8844632444925724</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9289975257308561</v>
+        <v>0.9304815289408693</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1124</v>
@@ -3621,19 +3621,19 @@
         <v>1176601</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1155071</v>
+        <v>1152433</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1196631</v>
+        <v>1195598</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9122991630264196</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8956050656704168</v>
+        <v>0.8935596731472916</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9278292732149988</v>
+        <v>0.9270283180624956</v>
       </c>
     </row>
     <row r="9">
@@ -3650,19 +3650,19 @@
         <v>40250</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>27626</v>
+        <v>28192</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>55191</v>
+        <v>53741</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05890421600949136</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04042988888758791</v>
+        <v>0.04125818094067159</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08077084442046341</v>
+        <v>0.07864842215083488</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>43</v>
@@ -3671,19 +3671,19 @@
         <v>44731</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>33026</v>
+        <v>32512</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>59548</v>
+        <v>57331</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07376530074107866</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05446295130436857</v>
+        <v>0.0536144372130075</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09819822955741367</v>
+        <v>0.09454327997002325</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>80</v>
@@ -3692,19 +3692,19 @@
         <v>84981</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>66411</v>
+        <v>68025</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>104103</v>
+        <v>106361</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06589168703809159</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05149292803673153</v>
+        <v>0.05274478946236816</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08071806490355159</v>
+        <v>0.08246920647955883</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3721,19 @@
         <v>16553</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9938</v>
+        <v>9566</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27799</v>
+        <v>27086</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02422427299214183</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01454432373656847</v>
+        <v>0.01399961201315771</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04068291905601786</v>
+        <v>0.03963920338166811</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3742,19 +3742,19 @@
         <v>11575</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6842</v>
+        <v>5827</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19780</v>
+        <v>19281</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01908774387664008</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01128233353671497</v>
+        <v>0.009608352487570186</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03261911181180217</v>
+        <v>0.03179609762460154</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -3763,19 +3763,19 @@
         <v>28127</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19186</v>
+        <v>18661</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40519</v>
+        <v>40347</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02180914993548885</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01487595858040553</v>
+        <v>0.01446894521308153</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03141722541011849</v>
+        <v>0.03128340519061629</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>600727</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>581848</v>
+        <v>581855</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>614704</v>
+        <v>616700</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8898242434708805</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8618601467748196</v>
+        <v>0.8618701323059188</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9105284751385335</v>
+        <v>0.9134843337208384</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>599</v>
@@ -3888,19 +3888,19 @@
         <v>638440</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>621804</v>
+        <v>623071</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>653711</v>
+        <v>653249</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9101940986776756</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8864762686363249</v>
+        <v>0.8882832454807655</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9319656312300761</v>
+        <v>0.9313059410266048</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1175</v>
@@ -3909,19 +3909,19 @@
         <v>1239167</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1213393</v>
+        <v>1214104</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1260245</v>
+        <v>1259747</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9002039544649121</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8814804188432841</v>
+        <v>0.881996567148406</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9155165316807626</v>
+        <v>0.9151546468396043</v>
       </c>
     </row>
     <row r="13">
@@ -3938,19 +3938,19 @@
         <v>55769</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42482</v>
+        <v>42581</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71538</v>
+        <v>73279</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08260740462235987</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06292666868081183</v>
+        <v>0.06307319354151722</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1059654084840577</v>
+        <v>0.1085440621676581</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -3959,19 +3959,19 @@
         <v>49214</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36378</v>
+        <v>35854</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64761</v>
+        <v>62814</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07016146866181991</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05186285274837348</v>
+        <v>0.05111482979556314</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09232690131039306</v>
+        <v>0.08955088023770365</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -3980,19 +3980,19 @@
         <v>104982</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87115</v>
+        <v>87132</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>130255</v>
+        <v>127837</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07626542442617594</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06328548151199194</v>
+        <v>0.06329778577863514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09462478385152935</v>
+        <v>0.09286799585068883</v>
       </c>
     </row>
     <row r="14">
@@ -4009,19 +4009,19 @@
         <v>18612</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11148</v>
+        <v>10706</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30229</v>
+        <v>30817</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02756835190675965</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01651312042941325</v>
+        <v>0.01585809227092667</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04477632654791092</v>
+        <v>0.04564737534875889</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -4030,19 +4030,19 @@
         <v>13779</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7486</v>
+        <v>7589</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24507</v>
+        <v>24118</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01964443266050441</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01067214429436828</v>
+        <v>0.01081972993348408</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03493884979760901</v>
+        <v>0.03438447056094772</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>29</v>
@@ -4051,19 +4051,19 @@
         <v>32391</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21368</v>
+        <v>21133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46751</v>
+        <v>46323</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02353062110891203</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01552265980539993</v>
+        <v>0.01535245136216959</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03396291678906701</v>
+        <v>0.0336519333083217</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>549918</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>532967</v>
+        <v>531099</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>565357</v>
+        <v>565686</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8962260975250791</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8686003982923873</v>
+        <v>0.8655566031655832</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9213871985773953</v>
+        <v>0.9219244613212851</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>480</v>
@@ -4176,19 +4176,19 @@
         <v>550266</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>532412</v>
+        <v>534010</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>562548</v>
+        <v>564400</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9051428685727231</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8757741425038866</v>
+        <v>0.8784023379833559</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9253452517115814</v>
+        <v>0.9283912580392168</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>973</v>
@@ -4197,19 +4197,19 @@
         <v>1100184</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1074482</v>
+        <v>1075043</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1119205</v>
+        <v>1121067</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9006638253076207</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8796230639675833</v>
+        <v>0.8800821900256737</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9162351945919671</v>
+        <v>0.917759262975507</v>
       </c>
     </row>
     <row r="17">
@@ -4226,19 +4226,19 @@
         <v>47449</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33862</v>
+        <v>34240</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>64025</v>
+        <v>63072</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07732920235236897</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05518601950800072</v>
+        <v>0.05580223589127332</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1043445375806034</v>
+        <v>0.102791575698593</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -4247,19 +4247,19 @@
         <v>47739</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35539</v>
+        <v>34562</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63091</v>
+        <v>62377</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07852612917225867</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05845940013833811</v>
+        <v>0.05685168072107378</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1037787485395784</v>
+        <v>0.1026056767589503</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -4268,19 +4268,19 @@
         <v>95187</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>77458</v>
+        <v>76865</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>118371</v>
+        <v>116543</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07792489280734562</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06341099057825146</v>
+        <v>0.06292498865792355</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09690440462552768</v>
+        <v>0.09540744389542079</v>
       </c>
     </row>
     <row r="18">
@@ -4297,19 +4297,19 @@
         <v>16226</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8495</v>
+        <v>8673</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27694</v>
+        <v>29041</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0264447001225519</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0138451449610182</v>
+        <v>0.01413420320420604</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04513399774919944</v>
+        <v>0.04732966032927201</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -4318,19 +4318,19 @@
         <v>9928</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5006</v>
+        <v>4887</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18736</v>
+        <v>18889</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01633100225501824</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008234426562776578</v>
+        <v>0.008038715267866814</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03081916070690457</v>
+        <v>0.03107085105854458</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>22</v>
@@ -4339,19 +4339,19 @@
         <v>26154</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>17126</v>
+        <v>16156</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>41350</v>
+        <v>38961</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02141128188503365</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01402009431887822</v>
+        <v>0.01322569690509606</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03385089846288406</v>
+        <v>0.03189555336892751</v>
       </c>
     </row>
     <row r="19">
@@ -4443,19 +4443,19 @@
         <v>402074</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>389332</v>
+        <v>389945</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>411475</v>
+        <v>411540</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9362981858489916</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9066280070160699</v>
+        <v>0.9080549491481721</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9581906636354044</v>
+        <v>0.9583415216603163</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>363</v>
@@ -4464,19 +4464,19 @@
         <v>400686</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>386842</v>
+        <v>385222</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>412291</v>
+        <v>411941</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9032198170521245</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8720124028711279</v>
+        <v>0.8683597071895968</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9293791613951027</v>
+        <v>0.9285896061737543</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>731</v>
@@ -4485,19 +4485,19 @@
         <v>802760</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>784707</v>
+        <v>784552</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>820257</v>
+        <v>818133</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9194901665500812</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8988126018028704</v>
+        <v>0.8986346149643837</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.939531765544347</v>
+        <v>0.9370981417784638</v>
       </c>
     </row>
     <row r="21">
@@ -4514,19 +4514,19 @@
         <v>22030</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13444</v>
+        <v>13824</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32698</v>
+        <v>33620</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05130093866453865</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03130747413389384</v>
+        <v>0.03219087782633273</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07614243365743155</v>
+        <v>0.07829017372740289</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>31</v>
@@ -4535,19 +4535,19 @@
         <v>32824</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>22731</v>
+        <v>23297</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>45369</v>
+        <v>45658</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07399198968265265</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05124010847454209</v>
+        <v>0.05251553567459447</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1022701303046175</v>
+        <v>0.1029216531721602</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>51</v>
@@ -4556,19 +4556,19 @@
         <v>54854</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>39919</v>
+        <v>40767</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>70923</v>
+        <v>71175</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06283087914519331</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04572309968166309</v>
+        <v>0.0466947189113423</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08123590672123533</v>
+        <v>0.08152484344007185</v>
       </c>
     </row>
     <row r="22">
@@ -4585,19 +4585,19 @@
         <v>5325</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2097</v>
+        <v>2078</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12048</v>
+        <v>11603</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01240087548646978</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004883455186328185</v>
+        <v>0.004838226716338614</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02805575113881405</v>
+        <v>0.02701906849397718</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -4606,19 +4606,19 @@
         <v>10109</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4598</v>
+        <v>4200</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18980</v>
+        <v>20240</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02278819326522281</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01036455204115728</v>
+        <v>0.009466969845149695</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04278494597551075</v>
+        <v>0.04562444017682209</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -4627,19 +4627,19 @@
         <v>15435</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8526</v>
+        <v>8646</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27022</v>
+        <v>25731</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01767895430472554</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009765839382778811</v>
+        <v>0.009903659210457782</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03095122889614123</v>
+        <v>0.02947243481612733</v>
       </c>
     </row>
     <row r="23">
@@ -4731,19 +4731,19 @@
         <v>281004</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>270337</v>
+        <v>268905</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>289248</v>
+        <v>289154</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9222585481962904</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8872493066633537</v>
+        <v>0.8825504670929581</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9493156757356166</v>
+        <v>0.9490067607739067</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>314</v>
@@ -4752,19 +4752,19 @@
         <v>324035</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>313218</v>
+        <v>314232</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>333017</v>
+        <v>332629</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9229500945836832</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8921409760452214</v>
+        <v>0.8950273833233164</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9485333493850814</v>
+        <v>0.9474278460951492</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>572</v>
@@ -4773,19 +4773,19 @@
         <v>605039</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>587124</v>
+        <v>589926</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>617177</v>
+        <v>617995</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9226287841093805</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8953105766427489</v>
+        <v>0.8995832589349436</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9411388057265162</v>
+        <v>0.9423856964929724</v>
       </c>
     </row>
     <row r="25">
@@ -4802,19 +4802,19 @@
         <v>18592</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11052</v>
+        <v>10631</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28810</v>
+        <v>29727</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06101922560890004</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03627162886616537</v>
+        <v>0.03489187957727636</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0945552049390425</v>
+        <v>0.09756580726440572</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -4823,19 +4823,19 @@
         <v>20566</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12779</v>
+        <v>14169</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29679</v>
+        <v>29907</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05857690418173635</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03639774084919069</v>
+        <v>0.04035760245493505</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0845340498766986</v>
+        <v>0.08518494565729394</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -4844,19 +4844,19 @@
         <v>39158</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>28059</v>
+        <v>28245</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>54750</v>
+        <v>53890</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05971167036729912</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04278717119787388</v>
+        <v>0.04307095706504979</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08348804639384767</v>
+        <v>0.08217681016942348</v>
       </c>
     </row>
     <row r="26">
@@ -4873,19 +4873,19 @@
         <v>5095</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2001</v>
+        <v>1979</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11317</v>
+        <v>11419</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01672222619480963</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006566621319544802</v>
+        <v>0.006494151524411411</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03714357096741083</v>
+        <v>0.03747754495276993</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -4894,19 +4894,19 @@
         <v>6486</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2731</v>
+        <v>2666</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13682</v>
+        <v>13426</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01847300123458044</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007777625809921497</v>
+        <v>0.007592527678931322</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0389694006235994</v>
+        <v>0.03824004283061262</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -4915,19 +4915,19 @@
         <v>11581</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5718</v>
+        <v>5969</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20590</v>
+        <v>21604</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01765954552332034</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008719861592220204</v>
+        <v>0.009102081258950007</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03139784958375157</v>
+        <v>0.03294484558391318</v>
       </c>
     </row>
     <row r="27">
@@ -5019,19 +5019,19 @@
         <v>233770</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>224104</v>
+        <v>224537</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>240210</v>
+        <v>240258</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9436943017044763</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9046725093501434</v>
+        <v>0.9064223468058914</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9696911651065458</v>
+        <v>0.9698869433242171</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>321</v>
@@ -5040,19 +5040,19 @@
         <v>355567</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>343071</v>
+        <v>340772</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>365847</v>
+        <v>364631</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9196377438982827</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.887318416811014</v>
+        <v>0.8813716138477342</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.946225755409386</v>
+        <v>0.9430803786918563</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>529</v>
@@ -5061,19 +5061,19 @@
         <v>589337</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>573679</v>
+        <v>573001</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>601998</v>
+        <v>601628</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9290318934081673</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.904348863270751</v>
+        <v>0.9032805696644622</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9489912136874558</v>
+        <v>0.9484071983465991</v>
       </c>
     </row>
     <row r="29">
@@ -5090,19 +5090,19 @@
         <v>10798</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5211</v>
+        <v>5290</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20141</v>
+        <v>19948</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04359171716924456</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02103799431910748</v>
+        <v>0.02135460242453437</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08130815204486164</v>
+        <v>0.08052517056113898</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>25</v>
@@ -5111,19 +5111,19 @@
         <v>29087</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19199</v>
+        <v>20507</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41803</v>
+        <v>43765</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07523149726192163</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04965564291629436</v>
+        <v>0.05303866314580496</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1081190941493268</v>
+        <v>0.1131947283490434</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>34</v>
@@ -5132,19 +5132,19 @@
         <v>39886</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>27716</v>
+        <v>27937</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54524</v>
+        <v>55037</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06287607937358371</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04369195762779773</v>
+        <v>0.04404035947545194</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08595105841350067</v>
+        <v>0.08676106738242306</v>
       </c>
     </row>
     <row r="30">
@@ -5161,19 +5161,19 @@
         <v>3149</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8435</v>
+        <v>8497</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01271398112627915</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004093262399287975</v>
+        <v>0.004070788905942719</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03405192354645857</v>
+        <v>0.03430042837518587</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6912</v>
+        <v>6932</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005130758839795685</v>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01787633960898426</v>
+        <v>0.01792980209601308</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -5203,19 +5203,19 @@
         <v>5133</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1990</v>
+        <v>2036</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11342</v>
+        <v>11550</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.008092027218248976</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003137247449285242</v>
+        <v>0.00320965391791645</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01787915726979091</v>
+        <v>0.01820670526952952</v>
       </c>
     </row>
     <row r="31">
@@ -5307,19 +5307,19 @@
         <v>3100700</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3065416</v>
+        <v>3065995</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3130176</v>
+        <v>3134146</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9121268559022373</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9017476695276009</v>
+        <v>0.9019178255153618</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9207978923005966</v>
+        <v>0.9219658370764552</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2982</v>
@@ -5328,19 +5328,19 @@
         <v>3219833</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3187089</v>
+        <v>3184472</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3253040</v>
+        <v>3253486</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9138385141951643</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9045450975501373</v>
+        <v>0.9038023364731232</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.923263148610341</v>
+        <v>0.9233896343233586</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5895</v>
@@ -5349,19 +5349,19 @@
         <v>6320533</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6271404</v>
+        <v>6266288</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6364633</v>
+        <v>6366820</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9129980143896108</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9059013157263417</v>
+        <v>0.9051624025886973</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9193682670107434</v>
+        <v>0.9196842518522571</v>
       </c>
     </row>
     <row r="33">
@@ -5378,19 +5378,19 @@
         <v>228895</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>199178</v>
+        <v>200652</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>259607</v>
+        <v>263095</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.06733360423239029</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05859178515662462</v>
+        <v>0.05902554815798267</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.07636810233854041</v>
+        <v>0.07739405346427666</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>227</v>
@@ -5399,19 +5399,19 @@
         <v>242696</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>211666</v>
+        <v>211846</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>273815</v>
+        <v>275272</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06888077077267682</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06007422303981089</v>
+        <v>0.060125230210509</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07771301606468607</v>
+        <v>0.07812651786689133</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>438</v>
@@ -5420,19 +5420,19 @@
         <v>471591</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>430693</v>
+        <v>432211</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>512468</v>
+        <v>519655</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06812104368132728</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06221346204173392</v>
+        <v>0.06243267853379162</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.07402579534173753</v>
+        <v>0.0750639553376314</v>
       </c>
     </row>
     <row r="34">
@@ -5449,19 +5449,19 @@
         <v>69822</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>53201</v>
+        <v>53388</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>90040</v>
+        <v>89290</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02053953986537238</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01564997412745121</v>
+        <v>0.01570509689934604</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02648695306438848</v>
+        <v>0.02626634972449769</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>57</v>
@@ -5470,19 +5470,19 @@
         <v>60887</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>45656</v>
+        <v>46741</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>78301</v>
+        <v>78753</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01728071503215888</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01295798748931884</v>
+        <v>0.01326574745162912</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02222317500097713</v>
+        <v>0.02235126700276959</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>120</v>
@@ -5491,19 +5491,19 @@
         <v>130710</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>108829</v>
+        <v>109128</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>155441</v>
+        <v>157988</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01888094192906193</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01572031641396119</v>
+        <v>0.01576352056232191</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02245334848097614</v>
+        <v>0.02282128796544036</v>
       </c>
     </row>
     <row r="35">
@@ -5838,19 +5838,19 @@
         <v>377193</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>362706</v>
+        <v>361626</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>387845</v>
+        <v>388557</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9051947547438367</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8704283660964595</v>
+        <v>0.8678382492788547</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9307587336158822</v>
+        <v>0.9324659108732738</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>355</v>
@@ -5859,19 +5859,19 @@
         <v>346347</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>332337</v>
+        <v>332614</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>358331</v>
+        <v>357545</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8817582555647252</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8460920356559173</v>
+        <v>0.8467953722918724</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9122685874376649</v>
+        <v>0.9102685725413602</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>711</v>
@@ -5880,19 +5880,19 @@
         <v>723540</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>704731</v>
+        <v>703619</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>740858</v>
+        <v>741063</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8938225841016901</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8705879508972858</v>
+        <v>0.8692139413095258</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9152162696168366</v>
+        <v>0.9154703541449745</v>
       </c>
     </row>
     <row r="5">
@@ -5909,19 +5909,19 @@
         <v>33188</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23213</v>
+        <v>23122</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47194</v>
+        <v>47376</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07964569574142545</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05570771069732264</v>
+        <v>0.05548749407078226</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1132581639763246</v>
+        <v>0.113694586567775</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -5930,19 +5930,19 @@
         <v>36556</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26254</v>
+        <v>26562</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50489</v>
+        <v>48402</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09306812872766078</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06684017667250823</v>
+        <v>0.06762369419099148</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1285381435545401</v>
+        <v>0.1232251749622782</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>65</v>
@@ -5951,19 +5951,19 @@
         <v>69745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54796</v>
+        <v>54668</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>88461</v>
+        <v>88667</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08615870765441171</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06769187815807227</v>
+        <v>0.06753363876622381</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1092800884566447</v>
+        <v>0.1095345692572683</v>
       </c>
     </row>
     <row r="6">
@@ -5980,19 +5980,19 @@
         <v>6317</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2127</v>
+        <v>2159</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12707</v>
+        <v>12973</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01515954951473781</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005105518610055974</v>
+        <v>0.005181830493719179</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03049422319815034</v>
+        <v>0.03113259755990933</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -6001,19 +6001,19 @@
         <v>9888</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4912</v>
+        <v>5814</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17789</v>
+        <v>17983</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.025173615707614</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01250499039761701</v>
+        <v>0.01480217733043334</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04528904241387393</v>
+        <v>0.04578374266144448</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -6022,19 +6022,19 @@
         <v>16205</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9904</v>
+        <v>9984</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25656</v>
+        <v>25520</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02001870824389819</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01223479203808074</v>
+        <v>0.01233325237600849</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03169440594423489</v>
+        <v>0.03152618842648292</v>
       </c>
     </row>
     <row r="7">
@@ -6126,19 +6126,19 @@
         <v>511620</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494697</v>
+        <v>493453</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>528242</v>
+        <v>527320</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8753437541529185</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8463896035188042</v>
+        <v>0.844261834372674</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9037833499370013</v>
+        <v>0.9022046660883993</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>512</v>
@@ -6147,19 +6147,19 @@
         <v>498385</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>482466</v>
+        <v>483233</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>512114</v>
+        <v>512573</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8874229890141925</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8590776862676442</v>
+        <v>0.8604440647623746</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.911868920279222</v>
+        <v>0.9126859712647893</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1005</v>
@@ -6168,19 +6168,19 @@
         <v>1010005</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>987187</v>
+        <v>988058</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1032338</v>
+        <v>1032286</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8812628511233754</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8613536404415417</v>
+        <v>0.8621132536132545</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9007490823591507</v>
+        <v>0.9007041906871681</v>
       </c>
     </row>
     <row r="9">
@@ -6197,19 +6197,19 @@
         <v>54035</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>40957</v>
+        <v>41034</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>68678</v>
+        <v>70982</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09245068103194572</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07007509911117155</v>
+        <v>0.07020541822363785</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1175028983612562</v>
+        <v>0.1214450788573108</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>43</v>
@@ -6218,19 +6218,19 @@
         <v>41905</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30308</v>
+        <v>29719</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>54860</v>
+        <v>54455</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07461611914779119</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05396563171460191</v>
+        <v>0.05291699391980195</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09768279545584455</v>
+        <v>0.09696276076267425</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>94</v>
@@ -6239,19 +6239,19 @@
         <v>95941</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>78718</v>
+        <v>77201</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>115471</v>
+        <v>114455</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08371134427508162</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06868444803197306</v>
+        <v>0.06736069640669493</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1007526898854488</v>
+        <v>0.09986603180131121</v>
       </c>
     </row>
     <row r="10">
@@ -6268,19 +6268,19 @@
         <v>18823</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10256</v>
+        <v>10969</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29249</v>
+        <v>28888</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03220556481513572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01754794999639051</v>
+        <v>0.0187672327973871</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05004360418765822</v>
+        <v>0.04942512507703238</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -6289,19 +6289,19 @@
         <v>21319</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13711</v>
+        <v>13541</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31639</v>
+        <v>30902</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03796089183801629</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0244133164634714</v>
+        <v>0.02411168033408583</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05633602440371614</v>
+        <v>0.05502322807397472</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -6310,19 +6310,19 @@
         <v>40143</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28592</v>
+        <v>29089</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53158</v>
+        <v>53547</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03502580460154289</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0249475701290844</v>
+        <v>0.02538074584372277</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04638230527506217</v>
+        <v>0.04672175765604127</v>
       </c>
     </row>
     <row r="11">
@@ -6414,19 +6414,19 @@
         <v>603621</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>587633</v>
+        <v>586527</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>618394</v>
+        <v>618533</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9074750956532494</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8834397454244008</v>
+        <v>0.8817767190548723</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9296848335124785</v>
+        <v>0.9298936874271647</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>597</v>
@@ -6435,19 +6435,19 @@
         <v>592750</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>576185</v>
+        <v>576798</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>606542</v>
+        <v>606382</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9042782389727543</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8790070201128763</v>
+        <v>0.8799428381097659</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9253185285828894</v>
+        <v>0.9250756314416861</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1173</v>
@@ -6456,19 +6456,19 @@
         <v>1196371</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1174030</v>
+        <v>1173988</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1215927</v>
+        <v>1215682</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9058883709782555</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8889722738072329</v>
+        <v>0.8889405459664921</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9206963068599195</v>
+        <v>0.9205108728998886</v>
       </c>
     </row>
     <row r="13">
@@ -6485,19 +6485,19 @@
         <v>50452</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37589</v>
+        <v>36454</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64936</v>
+        <v>65748</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0758488560798508</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05651142419424574</v>
+        <v>0.05480491223409985</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09762457606186546</v>
+        <v>0.09884482313329877</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -6506,19 +6506,19 @@
         <v>45942</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35309</v>
+        <v>35104</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61210</v>
+        <v>60793</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07008705586744952</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05386627720154076</v>
+        <v>0.05355279164508745</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09337943670155679</v>
+        <v>0.09274373614101011</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -6527,19 +6527,19 @@
         <v>96394</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78776</v>
+        <v>80267</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115517</v>
+        <v>117719</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07298904987546811</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05964903090251251</v>
+        <v>0.06077803962958497</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08746934405499586</v>
+        <v>0.08913686610426348</v>
       </c>
     </row>
     <row r="14">
@@ -6556,19 +6556,19 @@
         <v>11092</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5974</v>
+        <v>6075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19293</v>
+        <v>19327</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01667604826689982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008981748850954763</v>
+        <v>0.009133389024466818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02900445614162096</v>
+        <v>0.02905635355649432</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -6577,19 +6577,19 @@
         <v>16803</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9949</v>
+        <v>10129</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27723</v>
+        <v>27055</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02563470515979624</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01517714838393129</v>
+        <v>0.01545185918183156</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0422934877738493</v>
+        <v>0.0412740209182834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -6598,19 +6598,19 @@
         <v>27896</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18727</v>
+        <v>18738</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39975</v>
+        <v>40297</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02112257914627641</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0141802920963279</v>
+        <v>0.01418816967733525</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03026889135405084</v>
+        <v>0.0305124936864326</v>
       </c>
     </row>
     <row r="15">
@@ -6702,19 +6702,19 @@
         <v>558793</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>538682</v>
+        <v>539638</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>575702</v>
+        <v>574424</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.878999455127518</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8473646031530395</v>
+        <v>0.8488673427467112</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9055979042174442</v>
+        <v>0.9035871082905134</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>532</v>
@@ -6723,19 +6723,19 @@
         <v>573781</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>555609</v>
+        <v>556906</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>587629</v>
+        <v>587220</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8952170604522134</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.866864805810303</v>
+        <v>0.8688880826821309</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9168222581330797</v>
+        <v>0.9161844761086148</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1038</v>
@@ -6744,19 +6744,19 @@
         <v>1132574</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1107306</v>
+        <v>1105789</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1155113</v>
+        <v>1154961</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.887141453517345</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8673494788836718</v>
+        <v>0.8661613380006159</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.904796418147632</v>
+        <v>0.9046773723264626</v>
       </c>
     </row>
     <row r="17">
@@ -6773,19 +6773,19 @@
         <v>54986</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40707</v>
+        <v>41119</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71977</v>
+        <v>70087</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08649480777084409</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06403396461053275</v>
+        <v>0.06468140996254161</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1132228009578382</v>
+        <v>0.1102485898242148</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -6794,19 +6794,19 @@
         <v>47193</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35248</v>
+        <v>35261</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62118</v>
+        <v>61750</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07363053287248725</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05499458196473142</v>
+        <v>0.05501449828564614</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09691757279348148</v>
+        <v>0.09634279786541129</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>93</v>
@@ -6815,19 +6815,19 @@
         <v>102179</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>83007</v>
+        <v>83003</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>123015</v>
+        <v>123957</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08003633850786238</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06501938376918233</v>
+        <v>0.06501584898639774</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09635722875017813</v>
+        <v>0.0970947909024388</v>
       </c>
     </row>
     <row r="18">
@@ -6844,19 +6844,19 @@
         <v>21936</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13165</v>
+        <v>14444</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33995</v>
+        <v>34641</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03450573710163798</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02070828958747674</v>
+        <v>0.02272013530727473</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05347500796719007</v>
+        <v>0.05449170110200609</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -6865,19 +6865,19 @@
         <v>19967</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12634</v>
+        <v>12734</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30365</v>
+        <v>30658</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03115240667529932</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01971226764779058</v>
+        <v>0.01986717627060073</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04737523755083706</v>
+        <v>0.04783294471753813</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>38</v>
@@ -6886,19 +6886,19 @@
         <v>41903</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30872</v>
+        <v>30566</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>59069</v>
+        <v>57430</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03282220797479261</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02418182936239699</v>
+        <v>0.02394211715447142</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04626849624221828</v>
+        <v>0.04498438213923422</v>
       </c>
     </row>
     <row r="19">
@@ -6990,19 +6990,19 @@
         <v>420045</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>405223</v>
+        <v>404596</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>432087</v>
+        <v>432915</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8848997843377513</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8536749699059373</v>
+        <v>0.8523534261901631</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9102688878257581</v>
+        <v>0.9120127810094419</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>375</v>
@@ -7011,19 +7011,19 @@
         <v>428789</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>411114</v>
+        <v>410434</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>443278</v>
+        <v>443228</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8650526032339635</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8293935337100541</v>
+        <v>0.8280223055084895</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8942823355259057</v>
+        <v>0.8941816318797631</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>747</v>
@@ -7032,19 +7032,19 @@
         <v>848834</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>826927</v>
+        <v>826818</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>868907</v>
+        <v>871086</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.874761439499899</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8521851399603617</v>
+        <v>0.8520729147666809</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8954476551929289</v>
+        <v>0.8976928148558193</v>
       </c>
     </row>
     <row r="21">
@@ -7061,19 +7061,19 @@
         <v>36723</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26321</v>
+        <v>26600</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50119</v>
+        <v>50068</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0773643929430078</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05545050238824381</v>
+        <v>0.05603850013443414</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1055844281772945</v>
+        <v>0.105476575615354</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>40</v>
@@ -7082,19 +7082,19 @@
         <v>46362</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33330</v>
+        <v>33948</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>61804</v>
+        <v>61996</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09353239112307456</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06724181526028555</v>
+        <v>0.06848800103368725</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1246845620307734</v>
+        <v>0.1250733110872326</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>73</v>
@@ -7103,19 +7103,19 @@
         <v>83086</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>67250</v>
+        <v>64567</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>103536</v>
+        <v>102010</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08562333611635356</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06930422356948122</v>
+        <v>0.06653875211570426</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1066982186914191</v>
+        <v>0.1051253325789915</v>
       </c>
     </row>
     <row r="22">
@@ -7132,19 +7132,19 @@
         <v>17912</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10355</v>
+        <v>10237</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26938</v>
+        <v>28216</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03773582271924089</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02181561392183799</v>
+        <v>0.02156574742988819</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0567487751148979</v>
+        <v>0.0594418991143499</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -7153,19 +7153,19 @@
         <v>20529</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12768</v>
+        <v>12889</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32384</v>
+        <v>32179</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0414150056429619</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02575826815197417</v>
+        <v>0.02600192434126083</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06533266078010065</v>
+        <v>0.0649191870006246</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -7174,19 +7174,19 @@
         <v>38441</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26439</v>
+        <v>27457</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53194</v>
+        <v>53306</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03961522438374742</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02724652386140773</v>
+        <v>0.02829527183378115</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0548184256661796</v>
+        <v>0.05493450310141854</v>
       </c>
     </row>
     <row r="23">
@@ -7278,19 +7278,19 @@
         <v>296419</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>282652</v>
+        <v>283671</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>305867</v>
+        <v>306291</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8917273191119788</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8503110613609466</v>
+        <v>0.853376848227841</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9201507820025269</v>
+        <v>0.9214255417061934</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>312</v>
@@ -7299,19 +7299,19 @@
         <v>332049</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>317880</v>
+        <v>319378</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>342929</v>
+        <v>343155</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8951620100202838</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.856963958892763</v>
+        <v>0.8610020830801768</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.924494160226137</v>
+        <v>0.9251030322778259</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>601</v>
@@ -7320,19 +7320,19 @@
         <v>628468</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>609707</v>
+        <v>609457</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>643054</v>
+        <v>643229</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8935387345479104</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8668648548699446</v>
+        <v>0.866510367045867</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9142763922469496</v>
+        <v>0.9145253709280678</v>
       </c>
     </row>
     <row r="25">
@@ -7349,19 +7349,19 @@
         <v>23011</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14821</v>
+        <v>15019</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34894</v>
+        <v>34913</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06922519580471122</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04458684614591689</v>
+        <v>0.0451834120111625</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1049729014505087</v>
+        <v>0.1050291832920519</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -7370,19 +7370,19 @@
         <v>27402</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18528</v>
+        <v>18085</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39642</v>
+        <v>38550</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07387119854366048</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04994862243451357</v>
+        <v>0.04875414697666149</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1068688630182751</v>
+        <v>0.1039269221223347</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -7391,19 +7391,19 @@
         <v>50413</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37906</v>
+        <v>37613</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65269</v>
+        <v>65973</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07167544279967775</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05389339167430503</v>
+        <v>0.05347783791837624</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09279723123186345</v>
+        <v>0.09379854985170966</v>
       </c>
     </row>
     <row r="26">
@@ -7420,19 +7420,19 @@
         <v>12980</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6927</v>
+        <v>7146</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21760</v>
+        <v>21131</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03904748508331002</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02083749803083291</v>
+        <v>0.02149736210138122</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06546116017062376</v>
+        <v>0.06356908898165314</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -7441,19 +7441,19 @@
         <v>11487</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6197</v>
+        <v>6117</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19580</v>
+        <v>19989</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03096679143605567</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01670611580258959</v>
+        <v>0.0164918201360074</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05278455081828023</v>
+        <v>0.05388764966573016</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -7462,19 +7462,19 @@
         <v>24467</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15451</v>
+        <v>15740</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36043</v>
+        <v>35553</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03478582265241184</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02196716635542195</v>
+        <v>0.02237913662446737</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05124502849319753</v>
+        <v>0.05054772198363259</v>
       </c>
     </row>
     <row r="27">
@@ -7566,19 +7566,19 @@
         <v>230297</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>219957</v>
+        <v>218899</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>237450</v>
+        <v>238055</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9016649889481702</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8611809194650795</v>
+        <v>0.8570380782239492</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9296714066092508</v>
+        <v>0.9320377774817743</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>271</v>
@@ -7587,19 +7587,19 @@
         <v>360229</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>346012</v>
+        <v>345565</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>372852</v>
+        <v>370926</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9151238602021092</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8790063863665745</v>
+        <v>0.877870701283889</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9471901898860663</v>
+        <v>0.942296365642443</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>542</v>
@@ -7608,19 +7608,19 @@
         <v>590526</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>573754</v>
+        <v>573537</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>605156</v>
+        <v>604601</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9098275731789502</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.883987105287073</v>
+        <v>0.8836515312424275</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9323672321377664</v>
+        <v>0.9315126490865679</v>
       </c>
     </row>
     <row r="29">
@@ -7637,19 +7637,19 @@
         <v>19029</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12424</v>
+        <v>12742</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28272</v>
+        <v>29401</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07450378083277157</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04864418521425055</v>
+        <v>0.04988763242282002</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1106903099560982</v>
+        <v>0.115110762173946</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -7658,19 +7658,19 @@
         <v>25554</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15113</v>
+        <v>15745</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>38234</v>
+        <v>37767</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06491613862926121</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03839420771133972</v>
+        <v>0.03999971150818167</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09712898822551475</v>
+        <v>0.09594332216063689</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>41</v>
@@ -7679,19 +7679,19 @@
         <v>44583</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>32272</v>
+        <v>32439</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>59900</v>
+        <v>58427</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06868903340082545</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04972228830869264</v>
+        <v>0.04997878115372249</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09228795340208996</v>
+        <v>0.09001910356610225</v>
       </c>
     </row>
     <row r="30">
@@ -7708,19 +7708,19 @@
         <v>6087</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2578</v>
+        <v>2583</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12153</v>
+        <v>12150</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0238312302190583</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01009247239930333</v>
+        <v>0.01011417807370671</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04758307381682964</v>
+        <v>0.04757125402548904</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -7729,19 +7729,19 @@
         <v>7857</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2673</v>
+        <v>2707</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>14834</v>
+        <v>15633</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01996000116862956</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00678925456475038</v>
+        <v>0.006877397105435249</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03768318662302198</v>
+        <v>0.03971460687371255</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>13</v>
@@ -7750,19 +7750,19 @@
         <v>13944</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7584</v>
+        <v>7727</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>23619</v>
+        <v>24011</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02148339342022429</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01168490380635769</v>
+        <v>0.01190451161587394</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03639015296784783</v>
+        <v>0.0369934132318446</v>
       </c>
     </row>
     <row r="31">
@@ -7854,19 +7854,19 @@
         <v>2997987</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2958645</v>
+        <v>2958492</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3033496</v>
+        <v>3030819</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8910487437635227</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8793555506720994</v>
+        <v>0.8793102085772229</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9016027322337093</v>
+        <v>0.900806969264409</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2954</v>
@@ -7875,19 +7875,19 @@
         <v>3132330</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3094988</v>
+        <v>3094772</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3170179</v>
+        <v>3172429</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8921238961481729</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8814883693903376</v>
+        <v>0.8814270813354531</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.902903667058591</v>
+        <v>0.9035446940659982</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5817</v>
@@ -7896,19 +7896,19 @@
         <v>6130317</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6077392</v>
+        <v>6074613</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6183857</v>
+        <v>6180770</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8915977766794007</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8839003413507835</v>
+        <v>0.8834961004342783</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8993847202398472</v>
+        <v>0.8989357034763851</v>
       </c>
     </row>
     <row r="33">
@@ -7925,19 +7925,19 @@
         <v>271425</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>240040</v>
+        <v>241126</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>307211</v>
+        <v>306049</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08067189789526905</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07134379124112787</v>
+        <v>0.07166652923755221</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09130803466724151</v>
+        <v>0.09096244798946769</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>253</v>
@@ -7946,19 +7946,19 @@
         <v>270913</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>237871</v>
+        <v>237837</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>302506</v>
+        <v>306801</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07715923092497746</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06774849036753501</v>
+        <v>0.06773870993902288</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08615717661898441</v>
+        <v>0.08738042753608348</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>506</v>
@@ -7967,19 +7967,19 @@
         <v>542339</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>495283</v>
+        <v>501599</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>587548</v>
+        <v>591940</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0788781337584442</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07203434228614056</v>
+        <v>0.07295293042526696</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08545341221079941</v>
+        <v>0.0860922097351739</v>
       </c>
     </row>
     <row r="34">
@@ -7996,19 +7996,19 @@
         <v>95148</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>77357</v>
+        <v>74849</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>116413</v>
+        <v>117713</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02827935834120825</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02299167015372375</v>
+        <v>0.02224632129575543</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03459981401362933</v>
+        <v>0.03498623283214532</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>101</v>
@@ -8017,19 +8017,19 @@
         <v>107850</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>88620</v>
+        <v>87438</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>131333</v>
+        <v>130445</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03071687292684961</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02524005330427091</v>
+        <v>0.02490348785640108</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03740520970085897</v>
+        <v>0.0371521278272585</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>189</v>
@@ -8038,19 +8038,19 @@
         <v>202997</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>175339</v>
+        <v>176693</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>231390</v>
+        <v>233220</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02952408956215517</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02550137473496872</v>
+        <v>0.02569842490315654</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03365354025303906</v>
+        <v>0.03391973356549693</v>
       </c>
     </row>
     <row r="35">
@@ -8385,19 +8385,19 @@
         <v>386004</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>368048</v>
+        <v>369174</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>397340</v>
+        <v>397754</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9465679779741615</v>
+        <v>0.9465679779741611</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9025363586565336</v>
+        <v>0.9052967248487651</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.974366209881342</v>
+        <v>0.9753819654290296</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>192</v>
@@ -8406,19 +8406,19 @@
         <v>333624</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>316457</v>
+        <v>316767</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>344458</v>
+        <v>344660</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9342054130698493</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8861338105419053</v>
+        <v>0.8870010051894442</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9645410081875004</v>
+        <v>0.9651062717910388</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>354</v>
@@ -8427,19 +8427,19 @@
         <v>719629</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>697601</v>
+        <v>697255</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>737126</v>
+        <v>736792</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9407961768502233</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9119983189230979</v>
+        <v>0.9115455051486758</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9636705748892278</v>
+        <v>0.9632341251818141</v>
       </c>
     </row>
     <row r="5">
@@ -8456,19 +8456,19 @@
         <v>16622</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7404</v>
+        <v>7837</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32114</v>
+        <v>33512</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04076095968964168</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01815706550974629</v>
+        <v>0.0192171744110676</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07875024694237087</v>
+        <v>0.08217779494127742</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -8477,19 +8477,19 @@
         <v>16208</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7256</v>
+        <v>6774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33483</v>
+        <v>32046</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.0453864738734359</v>
+        <v>0.04538647387343591</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02031808688408342</v>
+        <v>0.01896883137236006</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09375902378131327</v>
+        <v>0.08973299334209507</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -8498,19 +8498,19 @@
         <v>32831</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18510</v>
+        <v>18771</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54739</v>
+        <v>53223</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0429205073378407</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0241993651955734</v>
+        <v>0.0245402417218798</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07156265938975694</v>
+        <v>0.06958033748949516</v>
       </c>
     </row>
     <row r="6">
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20762</v>
+        <v>19952</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01267106233619712</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05091216345296399</v>
+        <v>0.04892688959412041</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -8548,19 +8548,19 @@
         <v>7288</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2449</v>
+        <v>2402</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18512</v>
+        <v>17692</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0204081130567149</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006856823278393548</v>
+        <v>0.006725007751027269</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05183675504711024</v>
+        <v>0.04954013505045098</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -8569,19 +8569,19 @@
         <v>12455</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4972</v>
+        <v>4898</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26124</v>
+        <v>28201</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01628331581193612</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006499887588010313</v>
+        <v>0.006403291452827224</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03415290378300896</v>
+        <v>0.03686760466623522</v>
       </c>
     </row>
     <row r="7">
@@ -8673,19 +8673,19 @@
         <v>450087</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>435085</v>
+        <v>433789</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>460347</v>
+        <v>460211</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9437962350465483</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9123383645006058</v>
+        <v>0.909621246394864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9653100665542419</v>
+        <v>0.9650252590285305</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>442</v>
@@ -8694,19 +8694,19 @@
         <v>481656</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>472238</v>
+        <v>470312</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>490117</v>
+        <v>488751</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9599849592326143</v>
+        <v>0.9599849592326145</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9412133833104378</v>
+        <v>0.9373756539466611</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9768489984095724</v>
+        <v>0.9741258140249632</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>726</v>
@@ -8715,19 +8715,19 @@
         <v>931743</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>913553</v>
+        <v>915608</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>944902</v>
+        <v>946013</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9520960725326184</v>
+        <v>0.9520960725326185</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9335085853458813</v>
+        <v>0.9356090091122895</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9655428213816853</v>
+        <v>0.9666777340086758</v>
       </c>
     </row>
     <row r="9">
@@ -8744,19 +8744,19 @@
         <v>18220</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9179</v>
+        <v>10262</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30376</v>
+        <v>31713</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0382058454185395</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01924667464339841</v>
+        <v>0.02151905589263656</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06369550337115239</v>
+        <v>0.06650029805359832</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -8765,19 +8765,19 @@
         <v>20077</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11616</v>
+        <v>12982</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29495</v>
+        <v>31421</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04001504076738548</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02315100159042754</v>
+        <v>0.02587418597503689</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05878661668956212</v>
+        <v>0.06262434605334029</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>32</v>
@@ -8786,19 +8786,19 @@
         <v>38297</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>26059</v>
+        <v>26611</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>54663</v>
+        <v>54326</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.03913340630619116</v>
+        <v>0.03913340630619117</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02662802418332049</v>
+        <v>0.02719224178241602</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05585698484354702</v>
+        <v>0.05551263360677697</v>
       </c>
     </row>
     <row r="10">
@@ -8815,19 +8815,19 @@
         <v>8583</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3179</v>
+        <v>2912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20354</v>
+        <v>19981</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01799791953491215</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006665380623040403</v>
+        <v>0.006106867793472069</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04268128157222031</v>
+        <v>0.04189795991380486</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -8849,19 +8849,19 @@
         <v>8583</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3093</v>
+        <v>2776</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18673</v>
+        <v>19641</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.008770521161190394</v>
+        <v>0.008770521161190396</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003160191250467403</v>
+        <v>0.002836601851905897</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01908078574141781</v>
+        <v>0.02006981849594371</v>
       </c>
     </row>
     <row r="11">
@@ -8953,19 +8953,19 @@
         <v>584677</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>571039</v>
+        <v>571607</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>594821</v>
+        <v>595795</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9469141781654659</v>
+        <v>0.946914178165466</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.924827151361057</v>
+        <v>0.9257475862518733</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9633423149422383</v>
+        <v>0.964920232895158</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>798</v>
@@ -8974,19 +8974,19 @@
         <v>585407</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>575166</v>
+        <v>574756</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>593736</v>
+        <v>595213</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9463738264917942</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9298184520440116</v>
+        <v>0.9291555410255165</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9598384907386415</v>
+        <v>0.9622255239613082</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1313</v>
@@ -8995,19 +8995,19 @@
         <v>1170084</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1154533</v>
+        <v>1153968</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1184864</v>
+        <v>1183940</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9466437567948869</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9340621265544482</v>
+        <v>0.9336054568561709</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9586014940495312</v>
+        <v>0.9578535734075166</v>
       </c>
     </row>
     <row r="13">
@@ -9024,19 +9024,19 @@
         <v>24140</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15750</v>
+        <v>15196</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37017</v>
+        <v>35233</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03909569044225723</v>
+        <v>0.03909569044225724</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02550751079298052</v>
+        <v>0.02461026999355944</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05995073183152875</v>
+        <v>0.05706135477450517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -9045,19 +9045,19 @@
         <v>25556</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17866</v>
+        <v>17725</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35129</v>
+        <v>35276</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04131430923330177</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02888227530556263</v>
+        <v>0.02865482528897592</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05678941681285382</v>
+        <v>0.0570280445160735</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -9066,19 +9066,19 @@
         <v>49696</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37704</v>
+        <v>37397</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62279</v>
+        <v>64365</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04020600796971094</v>
+        <v>0.04020600796971095</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03050376414154582</v>
+        <v>0.03025557551494935</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05038644446573564</v>
+        <v>0.05207380512935701</v>
       </c>
     </row>
     <row r="14">
@@ -9095,19 +9095,19 @@
         <v>8638</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3836</v>
+        <v>3798</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16922</v>
+        <v>17239</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01399013139227675</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006212104995339961</v>
+        <v>0.006150824461085698</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02740578514894378</v>
+        <v>0.02792001920025497</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -9116,19 +9116,19 @@
         <v>7616</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3786</v>
+        <v>3772</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14146</v>
+        <v>13422</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01231186427490392</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006120056696773382</v>
+        <v>0.006097589740206971</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02286824954069178</v>
+        <v>0.02169760040116239</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -9137,19 +9137,19 @@
         <v>16254</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9531</v>
+        <v>10045</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25993</v>
+        <v>26203</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01315023523540207</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007710626183992581</v>
+        <v>0.008127115821794909</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0210292624410712</v>
+        <v>0.02119941780792322</v>
       </c>
     </row>
     <row r="15">
@@ -9241,19 +9241,19 @@
         <v>658880</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>645394</v>
+        <v>644656</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>670356</v>
+        <v>670352</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9416836863089265</v>
+        <v>0.9416836863089267</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9224086879045715</v>
+        <v>0.9213544520407967</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9580853216824127</v>
+        <v>0.9580798511080353</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1080</v>
@@ -9262,19 +9262,19 @@
         <v>695960</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>684761</v>
+        <v>685905</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>704785</v>
+        <v>705146</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9469296914846961</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9316926457929341</v>
+        <v>0.9332484105600106</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9589374890088963</v>
+        <v>0.9594284018060277</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1704</v>
@@ -9283,19 +9283,19 @@
         <v>1354840</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1339863</v>
+        <v>1337850</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1370038</v>
+        <v>1368776</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9443711950267688</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9339318747634661</v>
+        <v>0.9325282620393349</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9549647360267053</v>
+        <v>0.9540846906610068</v>
       </c>
     </row>
     <row r="17">
@@ -9312,19 +9312,19 @@
         <v>28372</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18676</v>
+        <v>19023</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40543</v>
+        <v>41099</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04055044965946099</v>
+        <v>0.040550449659461</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02669232337965409</v>
+        <v>0.02718834582684703</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05794515882401952</v>
+        <v>0.05873946833880467</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -9333,19 +9333,19 @@
         <v>29549</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21584</v>
+        <v>21891</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39639</v>
+        <v>38607</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04020524421651289</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02936734348501858</v>
+        <v>0.02978498659300565</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05393384829001547</v>
+        <v>0.05252837543862326</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -9354,19 +9354,19 @@
         <v>57922</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44845</v>
+        <v>45426</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>71922</v>
+        <v>72681</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0403736022095853</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03125882346635735</v>
+        <v>0.03166367047148699</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05013250616420675</v>
+        <v>0.05066110010200942</v>
       </c>
     </row>
     <row r="18">
@@ -9383,19 +9383,19 @@
         <v>12430</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6704</v>
+        <v>7018</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20858</v>
+        <v>21757</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01776586403161232</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.00958174999220486</v>
+        <v>0.01002979202749966</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02981069139451008</v>
+        <v>0.03109522637325317</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -9404,19 +9404,19 @@
         <v>9455</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5366</v>
+        <v>5416</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15914</v>
+        <v>15954</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01286506429879096</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007300969359046977</v>
+        <v>0.00736901132398285</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02165245748676069</v>
+        <v>0.0217065960476551</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>26</v>
@@ -9425,19 +9425,19 @@
         <v>21886</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>14965</v>
+        <v>14655</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31613</v>
+        <v>32739</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01525520276364594</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01043098721878079</v>
+        <v>0.01021526229434321</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02203518069003604</v>
+        <v>0.0228202272369203</v>
       </c>
     </row>
     <row r="19">
@@ -9529,19 +9529,19 @@
         <v>577335</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>565250</v>
+        <v>566054</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>585839</v>
+        <v>586080</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9526806226780027</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9327385680893202</v>
+        <v>0.9340654571571393</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9667131134625008</v>
+        <v>0.9671111888165316</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>956</v>
@@ -9550,19 +9550,19 @@
         <v>580645</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>571675</v>
+        <v>571463</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>586999</v>
+        <v>587313</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9592016118138863</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9443832639280122</v>
+        <v>0.9440329956574942</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9696977615285254</v>
+        <v>0.9702166172264759</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1585</v>
@@ -9571,19 +9571,19 @@
         <v>1157980</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1143351</v>
+        <v>1145162</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1169326</v>
+        <v>1169288</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9559393173080547</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.943862887343039</v>
+        <v>0.9453578338619829</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9653053827688273</v>
+        <v>0.9652739628942211</v>
       </c>
     </row>
     <row r="21">
@@ -9600,19 +9600,19 @@
         <v>19868</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13046</v>
+        <v>13160</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30118</v>
+        <v>29501</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03278507926967712</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02152838502898749</v>
+        <v>0.02171524523298907</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04969815559200833</v>
+        <v>0.04867983386440981</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>29</v>
@@ -9621,19 +9621,19 @@
         <v>16745</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11226</v>
+        <v>11101</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23697</v>
+        <v>24010</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02766127281531916</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01854537087327944</v>
+        <v>0.01833828956426176</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03914568663490156</v>
+        <v>0.03966281604832413</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>51</v>
@@ -9642,19 +9642,19 @@
         <v>36613</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>27468</v>
+        <v>27530</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>48500</v>
+        <v>47238</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03022459032692418</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02267549294157534</v>
+        <v>0.02272648031018207</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04003769155710932</v>
+        <v>0.03899633127368456</v>
       </c>
     </row>
     <row r="22">
@@ -9671,19 +9671,19 @@
         <v>8808</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4352</v>
+        <v>4456</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16095</v>
+        <v>15723</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01453429805232006</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007181731506207316</v>
+        <v>0.007352478828162314</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02655890183299526</v>
+        <v>0.02594438392428845</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -9692,19 +9692,19 @@
         <v>7952</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4583</v>
+        <v>4039</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14365</v>
+        <v>13716</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01313711537079475</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007571051517071374</v>
+        <v>0.006671492524865056</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02373039612477769</v>
+        <v>0.02265754180906522</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -9713,19 +9713,19 @@
         <v>16760</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10468</v>
+        <v>10640</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25687</v>
+        <v>25509</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01383609236502118</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008641422813647385</v>
+        <v>0.0087833289660412</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02120521570269172</v>
+        <v>0.02105800821641262</v>
       </c>
     </row>
     <row r="23">
@@ -9817,19 +9817,19 @@
         <v>390932</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>383805</v>
+        <v>383470</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>397252</v>
+        <v>396923</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9603321280297072</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9428236107888809</v>
+        <v>0.9420013348051476</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9758561663267881</v>
+        <v>0.9750502428358172</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>778</v>
@@ -9838,19 +9838,19 @@
         <v>414392</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>406175</v>
+        <v>407395</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>420340</v>
+        <v>420014</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9463883529830726</v>
+        <v>0.9463883529830728</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9276226456488782</v>
+        <v>0.930407528005409</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9599722829129245</v>
+        <v>0.9592282508328427</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1325</v>
@@ -9859,19 +9859,19 @@
         <v>805324</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>795006</v>
+        <v>795334</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>813909</v>
+        <v>813680</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.953106205082788</v>
+        <v>0.9531062050827882</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9408950176059493</v>
+        <v>0.9412825806620458</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9632666277818317</v>
+        <v>0.9629948690691795</v>
       </c>
     </row>
     <row r="25">
@@ -9888,19 +9888,19 @@
         <v>11902</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6645</v>
+        <v>6814</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18462</v>
+        <v>18861</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02923860973454511</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01632326332456654</v>
+        <v>0.01673883811042559</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04535212723987912</v>
+        <v>0.04633224638050144</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -9909,19 +9909,19 @@
         <v>17878</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12787</v>
+        <v>12840</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25051</v>
+        <v>24181</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0408294867244019</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02920201335909599</v>
+        <v>0.02932389871136419</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05721163195050143</v>
+        <v>0.05522547857027591</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -9930,19 +9930,19 @@
         <v>29780</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22240</v>
+        <v>22800</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39162</v>
+        <v>39117</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03524521725193614</v>
+        <v>0.03524521725193615</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02632095191327335</v>
+        <v>0.02698385883530769</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04634901640568075</v>
+        <v>0.04629496915077386</v>
       </c>
     </row>
     <row r="26">
@@ -9959,19 +9959,19 @@
         <v>4246</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1838</v>
+        <v>1750</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9162</v>
+        <v>8580</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01042926223574758</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004516238180647789</v>
+        <v>0.004298080222992561</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02250757829659444</v>
+        <v>0.02107580784330193</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -9980,19 +9980,19 @@
         <v>5597</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2749</v>
+        <v>2808</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9660</v>
+        <v>9966</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01278216029252534</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0062773903128125</v>
+        <v>0.00641333547747228</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02206178170622502</v>
+        <v>0.02276135577398614</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -10001,19 +10001,19 @@
         <v>9842</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5738</v>
+        <v>5674</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>16102</v>
+        <v>15505</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01164857766527581</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006790463381469011</v>
+        <v>0.006715337608647119</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01905715629421501</v>
+        <v>0.01835065026751096</v>
       </c>
     </row>
     <row r="27">
@@ -10105,19 +10105,19 @@
         <v>295390</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>287661</v>
+        <v>288432</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>301270</v>
+        <v>300875</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.9522639898260039</v>
+        <v>0.9522639898260037</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9273476941911046</v>
+        <v>0.9298311212131255</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9712186241128007</v>
+        <v>0.9699436008191908</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>850</v>
@@ -10126,19 +10126,19 @@
         <v>445702</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>439108</v>
+        <v>438446</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>451318</v>
+        <v>450745</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9654392713150584</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9511571255740197</v>
+        <v>0.9497214054034463</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.977604392335918</v>
+        <v>0.9763636289905145</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1288</v>
@@ -10147,19 +10147,19 @@
         <v>741092</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>730388</v>
+        <v>730620</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>749053</v>
+        <v>748886</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9601442992799587</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9462764506989764</v>
+        <v>0.9465770318773494</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9704580571324279</v>
+        <v>0.9702414070747362</v>
       </c>
     </row>
     <row r="29">
@@ -10176,19 +10176,19 @@
         <v>12235</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7265</v>
+        <v>7152</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19227</v>
+        <v>19172</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.03944286792884137</v>
+        <v>0.03944286792884136</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02341944109192638</v>
+        <v>0.02305661548704249</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06198453876631024</v>
+        <v>0.06180679577801033</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -10197,19 +10197,19 @@
         <v>12112</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7387</v>
+        <v>7921</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17860</v>
+        <v>19011</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02623580369493598</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01600167129933241</v>
+        <v>0.01715719478032617</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03868582139205799</v>
+        <v>0.0411797177806233</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>38</v>
@@ -10218,19 +10218,19 @@
         <v>24347</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>17608</v>
+        <v>17196</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34331</v>
+        <v>34050</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03154354879642696</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02281198073143655</v>
+        <v>0.02227879627895301</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04447868098089432</v>
+        <v>0.04411476599186658</v>
       </c>
     </row>
     <row r="30">
@@ -10247,19 +10247,19 @@
         <v>2573</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7537</v>
+        <v>6690</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.008293142245154766</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.001990085778380471</v>
+        <v>0.001971514923909107</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02429619378815621</v>
+        <v>0.02156558433052851</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -10268,19 +10268,19 @@
         <v>3843</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8195</v>
+        <v>8064</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.008324924990005762</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002933497793186877</v>
+        <v>0.002938986478898931</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01775059272743529</v>
+        <v>0.0174677052627011</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -10289,19 +10289,19 @@
         <v>6416</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2527</v>
+        <v>3228</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11745</v>
+        <v>11707</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.008312151923614388</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003274124372854554</v>
+        <v>0.004181627971782608</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01521608127648628</v>
+        <v>0.01516753134081111</v>
       </c>
     </row>
     <row r="31">
@@ -10393,19 +10393,19 @@
         <v>3343306</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3311136</v>
+        <v>3314417</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3371021</v>
+        <v>3370588</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9484257402358232</v>
+        <v>0.9484257402358233</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9392996819456362</v>
+        <v>0.9402303929318508</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9562879549842149</v>
+        <v>0.9561650295046346</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5096</v>
@@ -10414,19 +10414,19 @@
         <v>3537386</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3511962</v>
+        <v>3512639</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3559783</v>
+        <v>3560946</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9516102972574358</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9447708498127126</v>
+        <v>0.9449531503599885</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.957635482655021</v>
+        <v>0.957948298908444</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8295</v>
@@ -10435,19 +10435,19 @@
         <v>6880691</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6837603</v>
+        <v>6841540</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6913790</v>
+        <v>6914116</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.9500602645227754</v>
+        <v>0.9500602645227755</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9441107967212801</v>
+        <v>0.9446544624329316</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9546304980902403</v>
+        <v>0.9546754568701026</v>
       </c>
     </row>
     <row r="33">
@@ -10464,19 +10464,19 @@
         <v>131360</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>105394</v>
+        <v>109144</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>156876</v>
+        <v>158904</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03726408157869515</v>
+        <v>0.03726408157869514</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02989818490045975</v>
+        <v>0.03096186075594612</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04450239140769569</v>
+        <v>0.04507785008172304</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>192</v>
@@ -10485,19 +10485,19 @@
         <v>138125</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>116922</v>
+        <v>118375</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>159948</v>
+        <v>160268</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03715778593160674</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03145372231761837</v>
+        <v>0.03184469606067194</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04302842490110403</v>
+        <v>0.04311443680704311</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>318</v>
@@ -10506,19 +10506,19 @@
         <v>269485</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>242185</v>
+        <v>240880</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>309377</v>
+        <v>306378</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.03720952365569858</v>
+        <v>0.03720952365569859</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03344000433878582</v>
+        <v>0.03325980500220652</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04271764751638848</v>
+        <v>0.04230347987430153</v>
       </c>
     </row>
     <row r="34">
@@ -10535,19 +10535,19 @@
         <v>50445</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>36496</v>
+        <v>36304</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>73548</v>
+        <v>68243</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.01431017818548169</v>
+        <v>0.0143101781854817</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01035326830226094</v>
+        <v>0.01029865284064625</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02086403646699904</v>
+        <v>0.01935910789510804</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>56</v>
@@ -10556,19 +10556,19 @@
         <v>41752</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>31207</v>
+        <v>31916</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>55022</v>
+        <v>54662</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01123191681095753</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.008395121767991467</v>
+        <v>0.008585850604392832</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0148017762189493</v>
+        <v>0.0147047723069492</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>100</v>
@@ -10577,19 +10577,19 @@
         <v>92197</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>73349</v>
+        <v>74460</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>113452</v>
+        <v>113868</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0127302118215259</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0101277494168506</v>
+        <v>0.01028110524514072</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01566501183099869</v>
+        <v>0.01572248651618933</v>
       </c>
     </row>
     <row r="35">
